--- a/results/pvalue_SIDER_all_indication_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_indication_AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.896</t>
+          <t>11.023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.499</t>
+          <t>10.604</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.719</t>
+          <t>11.444</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.453</t>
+          <t>6.972</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.659</t>
+          <t>9.738</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
